--- a/docs/hardware/components.xlsx
+++ b/docs/hardware/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\repos\Exapode\docs\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\repos\Hexapode\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745D7E9-BA23-4941-A238-54AD48A3884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF89FB80-7F24-42D9-82B4-89018518499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre existing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ArbotiX Robocontroller</t>
   </si>
   <si>
-    <t>Wireless Xbee Control via PC or Handheld</t>
-  </si>
-  <si>
     <t>Multi-Function LiPo Balance Charger</t>
   </si>
   <si>
@@ -135,6 +132,45 @@
   </si>
   <si>
     <t>https://piveral.com/jetson-nano-power-supply-guide/</t>
+  </si>
+  <si>
+    <t>XBee Serie 1</t>
+  </si>
+  <si>
+    <t>https://www.robot-italy.com/it/xbee-series-1-wire-antenna.html</t>
+  </si>
+  <si>
+    <t>18(?)</t>
+  </si>
+  <si>
+    <t>https://it.rs-online.com/web/p/bbc-micro-bit-componenti-aggiuntivi/2153181?cm_mmc=IT-PLA-DS3A-_-google-_-CSS_IT_IT_Raspberry_Pi_%26_Arduino_e_Strumenti_di_sviluppo_Whoop-_-(IT:Whoop!)+BBC+micro:bit+-+Componenti+aggiuntivi-_-2153181&amp;matchtype=&amp;pla-328481528778&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDXNAWuB6r5o1FHs_TCnLhlRAPlkx4xhmqFs_0zfN7bzhgtzdOtcMXhoCbJcQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>https://cdn-learn.adafruit.com/downloads/pdf/adafruit-bno055-absolute-orientation-sensor.pdf</t>
+  </si>
+  <si>
+    <t>9-DOF IMU BNO055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interlink Electronics F SRTM 400</t>
+  </si>
+  <si>
+    <t>https://www.digikey.it/it/datasheets/interlink-electronics/interlink-electronics-datasheet_fsr</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.com/it/it/modulo-nvidia-jetson-nano-4x-1-4-ghz-4-gb-di-ram-jetson-nano-p323469.html?PROVID=2814&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDQkvGIkiLkluEDw7QMGhalKosa9Cmi27itsrEIMjqO8M7CtExioDEhoCwXgQAvD_BwE</t>
+  </si>
+  <si>
+    <t>HC-SR04 5V Kitronik (ultrasond)</t>
+  </si>
+  <si>
+    <t>https://www.ebay.it/itm/285025038869?hash=item425cd0f215:g:eXQAAOSwYmhjGKeQ</t>
+  </si>
+  <si>
+    <t>Wireless adapter WiFi USB 2.0</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/reComputer-J1020-v2-p-5498.html</t>
   </si>
 </sst>
 </file>
@@ -268,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -277,38 +313,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -590,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,10 +652,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -631,6 +678,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -638,81 +686,122 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{755AE68E-71E7-4816-BF9D-7C2CBF707C8D}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{FF2138DE-BAF0-4DC9-83F2-B8E9004AC507}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{F05372C3-9BAD-4B2E-9990-1549E6C6A4C2}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{0F64B2C4-08DE-48A1-A3BC-5532506CFCF7}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{3E6C56D1-BDC7-4AD9-BDE8-B3C8C9C07764}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{44378A01-DB9A-4A7B-A760-48B5C845DA87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377928F-487B-44F0-B593-E55E55CFC6D1}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,10 +812,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,34 +824,74 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{DF7205A7-D402-4C0A-82A7-DFA84477430C}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://it.rs-online.com/web/p/bbc-micro-bit-componenti-aggiuntivi/2153181?cm_mmc=IT-PLA-DS3A-_-google-_-CSS_IT_IT_Raspberry_Pi_%26_Arduino_e_Strumenti_di_sviluppo_Whoop-_-(IT:Whoop!)+BBC+micro:bit+-+Componenti+aggiuntivi-_-2153181&amp;matchtype=&amp;pla-328481528778&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDXNAWuB6r5o1FHs_TCnLhlRAPlkx4xhmqFs_0zfN7bzhgtzdOtcMXhoCbJcQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{7AE0BD71-7E99-4DC5-9D56-B58E06892DC8}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9AE797F4-D98A-47F1-BD16-ED4D4428787D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA8ED0E-D9E5-4B1B-AC82-85ADF11FEFA3}">
   <dimension ref="B3:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -787,92 +916,92 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="14" t="s">
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-      <c r="M4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>4</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/hardware/components.xlsx
+++ b/docs/hardware/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\repos\Hexapode\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF89FB80-7F24-42D9-82B4-89018518499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4426067-3512-4409-B50A-9C8E0FFAD4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
     <t>https://www.reichelt.com/it/it/modulo-nvidia-jetson-nano-4x-1-4-ghz-4-gb-di-ram-jetson-nano-p323469.html?PROVID=2814&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDQkvGIkiLkluEDw7QMGhalKosa9Cmi27itsrEIMjqO8M7CtExioDEhoCwXgQAvD_BwE</t>
   </si>
   <si>
-    <t>HC-SR04 5V Kitronik (ultrasond)</t>
-  </si>
-  <si>
     <t>https://www.ebay.it/itm/285025038869?hash=item425cd0f215:g:eXQAAOSwYmhjGKeQ</t>
   </si>
   <si>
@@ -171,13 +168,34 @@
   </si>
   <si>
     <t>https://www.seeedstudio.com/reComputer-J1020-v2-p-5498.html</t>
+  </si>
+  <si>
+    <t>HC-SR04 5V Kitronik (ultrasound)</t>
+  </si>
+  <si>
+    <t>Barrel jack 5V/4A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/psu-5v-4a-5.5-2.1-us.htm</t>
+  </si>
+  <si>
+    <t>CSI connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.it/it/products/detail/adafruit-industries-llc/1731/6238161?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Smart%20Shopping_Product_Zombie%20SKU&amp;utm_term=&amp;productid=6238161&amp;gclid=Cj0KCQiAj4ecBhD3ARIsAM4Q_jG_uxkO9Ytatcw6inCmRYDB0RvP-1Ur3myKV8mo8Qtd7-oeR61jl8caAlQLEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://it.aliexpress.com/item/1858974923.html?pdp_npi=2%40dis%21EUR%21%E2%82%AC%203%2C18%21%E2%82%AC%202%2C45%21%21%21%21%21%400b0a23a416694870026154130e1a5f%2156720756267%21btf&amp;_t=pvid%3A6a1d665c-0089-4b8a-8e22-aa9177dcd3bf&amp;afTraceInfo=1858974923__pc__pcBridgePPC__xxxxxx__1669487002&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2ita</t>
+  </si>
+  <si>
+    <t>USB/FTDI cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,12 +325,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -317,6 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,7 +377,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,17 +400,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,10 +711,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,7 +723,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -678,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -690,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -699,8 +758,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D7">
@@ -711,7 +770,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -723,7 +782,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
+      <c r="B9" s="14"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -732,7 +791,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -741,7 +800,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -753,10 +812,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12">
         <v>1</v>
       </c>
@@ -765,10 +824,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13">
         <v>6</v>
       </c>
@@ -798,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377928F-487B-44F0-B593-E55E55CFC6D1}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,89 +870,148 @@
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="E2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{DF7205A7-D402-4C0A-82A7-DFA84477430C}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://it.rs-online.com/web/p/bbc-micro-bit-componenti-aggiuntivi/2153181?cm_mmc=IT-PLA-DS3A-_-google-_-CSS_IT_IT_Raspberry_Pi_%26_Arduino_e_Strumenti_di_sviluppo_Whoop-_-(IT:Whoop!)+BBC+micro:bit+-+Componenti+aggiuntivi-_-2153181&amp;matchtype=&amp;pla-328481528778&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDXNAWuB6r5o1FHs_TCnLhlRAPlkx4xhmqFs_0zfN7bzhgtzdOtcMXhoCbJcQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{7AE0BD71-7E99-4DC5-9D56-B58E06892DC8}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{9AE797F4-D98A-47F1-BD16-ED4D4428787D}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{DF7205A7-D402-4C0A-82A7-DFA84477430C}"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://it.rs-online.com/web/p/bbc-micro-bit-componenti-aggiuntivi/2153181?cm_mmc=IT-PLA-DS3A-_-google-_-CSS_IT_IT_Raspberry_Pi_%26_Arduino_e_Strumenti_di_sviluppo_Whoop-_-(IT:Whoop!)+BBC+micro:bit+-+Componenti+aggiuntivi-_-2153181&amp;matchtype=&amp;pla-328481528778&amp;gclid=CjwKCAiA9qKbBhAzEiwAS4yeDXNAWuB6r5o1FHs_TCnLhlRAPlkx4xhmqFs_0zfN7bzhgtzdOtcMXhoCbJcQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{7AE0BD71-7E99-4DC5-9D56-B58E06892DC8}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{9AE797F4-D98A-47F1-BD16-ED4D4428787D}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{26F2EC73-2105-4870-81AB-69BF17072BB3}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://www.digikey.it/it/products/detail/adafruit-industries-llc/1731/6238161?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Smart%20Shopping_Product_Zombie%20SKU&amp;utm_term=&amp;productid=6238161&amp;gclid=Cj0KCQiAj4ecBhD3ARIsAM4Q_jG_uxkO9Ytatcw6inCmRYDB0RvP-1Ur3myKV8mo8Qtd7-oeR61jl8caAlQLEALw_wcB" xr:uid="{20A5FD2E-8F95-41B6-8596-57928087E967}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://it.aliexpress.com/item/1858974923.html?pdp_npi=2%40dis%21EUR%21%E2%82%AC%203%2C18%21%E2%82%AC%202%2C45%21%21%21%21%21%400b0a23a416694870026154130e1a5f%2156720756267%21btf&amp;_t=pvid%3A6a1d665c-0089-4b8a-8e22-aa9177dcd3bf&amp;afTraceInfo=1858974923__pc__pcBridgePPC__xxxxxx__1669487002&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2ita" xr:uid="{66AAFB3D-BE3A-4C55-AB42-38F1B7503569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -916,22 +1034,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -945,22 +1063,22 @@
       <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16"/>
       <c r="M4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -969,10 +1087,10 @@
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>5</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="6">
         <v>2</v>
       </c>
@@ -987,11 +1105,11 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
